--- a/app/src/main/assets/Intermediate Web Programming.xlsx
+++ b/app/src/main/assets/Intermediate Web Programming.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\FILES\Others\AcademicAlly Assessments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\AndroidStudioProjects\AcademicAlly\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A24F075-AD20-44EF-87AC-368E87FD8EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB23EB48-20E7-4A77-A17C-8D59197A2AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="126">
   <si>
     <t>It is a scripting language that is widely used and an open-source that is suited for web development.</t>
   </si>
@@ -402,6 +402,9 @@
   </si>
   <si>
     <t>PHP MySQL</t>
+  </si>
+  <si>
+    <t>default</t>
   </si>
 </sst>
 </file>
@@ -437,9 +440,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -720,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -736,7 +738,7 @@
     <col min="6" max="6" width="55.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>118</v>
       </c>
@@ -758,8 +760,11 @@
       <c r="G1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>119</v>
       </c>
@@ -781,8 +786,11 @@
       <c r="G2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>119</v>
       </c>
@@ -804,8 +812,11 @@
       <c r="G3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>120</v>
       </c>
@@ -827,8 +838,11 @@
       <c r="G4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>120</v>
       </c>
@@ -850,8 +864,11 @@
       <c r="G5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>121</v>
       </c>
@@ -873,8 +890,11 @@
       <c r="G6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -896,8 +916,11 @@
       <c r="G7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>121</v>
       </c>
@@ -919,8 +942,11 @@
       <c r="G8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>122</v>
       </c>
@@ -942,8 +968,11 @@
       <c r="G9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>122</v>
       </c>
@@ -965,8 +994,11 @@
       <c r="G10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>122</v>
       </c>
@@ -988,8 +1020,11 @@
       <c r="G11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>123</v>
       </c>
@@ -1011,8 +1046,11 @@
       <c r="G12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>123</v>
       </c>
@@ -1034,8 +1072,11 @@
       <c r="G13" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>124</v>
       </c>
@@ -1057,8 +1098,11 @@
       <c r="G14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>124</v>
       </c>
@@ -1079,6 +1123,9 @@
       </c>
       <c r="G15" t="s">
         <v>24</v>
+      </c>
+      <c r="H15" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1088,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21BCF74E-D834-4E53-AFCC-5C4591AB4FCB}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1101,7 +1148,7 @@
     <col min="3" max="3" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>118</v>
       </c>
@@ -1111,8 +1158,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>118</v>
       </c>
@@ -1122,8 +1172,11 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>119</v>
       </c>
@@ -1133,8 +1186,11 @@
       <c r="C3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>120</v>
       </c>
@@ -1144,8 +1200,11 @@
       <c r="C4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>120</v>
       </c>
@@ -1155,8 +1214,11 @@
       <c r="C5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>120</v>
       </c>
@@ -1166,8 +1228,11 @@
       <c r="C6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -1177,8 +1242,11 @@
       <c r="C7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>121</v>
       </c>
@@ -1188,8 +1256,11 @@
       <c r="C8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>121</v>
       </c>
@@ -1199,8 +1270,11 @@
       <c r="C9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>122</v>
       </c>
@@ -1210,8 +1284,11 @@
       <c r="C10" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>122</v>
       </c>
@@ -1221,8 +1298,11 @@
       <c r="C11" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>122</v>
       </c>
@@ -1232,8 +1312,11 @@
       <c r="C12" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>123</v>
       </c>
@@ -1243,8 +1326,11 @@
       <c r="C13" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>123</v>
       </c>
@@ -1254,8 +1340,11 @@
       <c r="C14" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>123</v>
       </c>
@@ -1265,8 +1354,11 @@
       <c r="C15" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>124</v>
       </c>
@@ -1276,8 +1368,11 @@
       <c r="C16" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>124</v>
       </c>
@@ -1286,6 +1381,9 @@
       </c>
       <c r="C17" t="s">
         <v>115</v>
+      </c>
+      <c r="D17" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1295,10 +1393,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187F714C-C5C3-4B4A-ACC1-51BC613F8CC2}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1307,7 +1405,7 @@
     <col min="2" max="2" width="152.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>118</v>
       </c>
@@ -1317,8 +1415,11 @@
       <c r="C1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>118</v>
       </c>
@@ -1328,8 +1429,11 @@
       <c r="C2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>119</v>
       </c>
@@ -1339,8 +1443,11 @@
       <c r="C3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>119</v>
       </c>
@@ -1350,8 +1457,11 @@
       <c r="C4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>120</v>
       </c>
@@ -1361,8 +1471,11 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>120</v>
       </c>
@@ -1372,8 +1485,11 @@
       <c r="C6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -1383,93 +1499,120 @@
       <c r="C7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>59</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>60</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>86</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>122</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>87</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>94</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>123</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>95</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>124</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>103</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>124</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>117</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
